--- a/targets/airline.xlsx
+++ b/targets/airline.xlsx
@@ -465,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.1554</v>
+        <v>0.2354</v>
       </c>
       <c r="C2">
-        <v>0.0012</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -476,10 +476,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.5246</v>
+        <v>0.5483</v>
       </c>
       <c r="C3">
-        <v>0.0005</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -487,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.2457</v>
+        <v>0.2422</v>
       </c>
       <c r="C4">
-        <v>0.0021</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -498,10 +498,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.1136</v>
+        <v>0.2289</v>
       </c>
       <c r="C5">
-        <v>0.0011</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -509,10 +509,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.06900000000000001</v>
+        <v>0.099</v>
       </c>
       <c r="C6">
-        <v>0.0015</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -520,10 +520,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.063</v>
+        <v>0.0989</v>
       </c>
       <c r="C7">
-        <v>0.0013</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -531,10 +531,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.5246</v>
+        <v>0.5483</v>
       </c>
       <c r="C8">
-        <v>0.0005</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -542,10 +542,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>22424.3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>225.431</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -553,10 +553,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>300000</v>
+        <v>155798.2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>904.1777</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -564,10 +564,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>121777.5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>805.2927</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>13507.1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>210.1272</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -586,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>300000</v>
+        <v>90350.39999999999</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1683.6146</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -597,10 +597,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>51940.7</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1463.9552</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -608,10 +608,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>21622</v>
+        <v>8253.799999999999</v>
       </c>
       <c r="C15">
-        <v>208.0652</v>
+        <v>106.181</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -619,10 +619,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>278378</v>
+        <v>82096.60000000001</v>
       </c>
       <c r="C16">
-        <v>208.0652</v>
+        <v>1595.2438</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -630,10 +630,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.9972</v>
+        <v>0.4471</v>
       </c>
       <c r="C17">
-        <v>0.008699999999999999</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -641,10 +641,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.0636</v>
+        <v>0.174</v>
       </c>
       <c r="C18">
-        <v>0.0474</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -652,10 +652,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.9736</v>
+        <v>0.4471</v>
       </c>
       <c r="C19">
-        <v>0.0409</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -663,10 +663,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.06610000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="C20">
-        <v>0.0497</v>
+        <v>0.0304</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -685,10 +685,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.6578</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="C22">
-        <v>0.0062</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="23" spans="1:3">
